--- a/hospital/media/files/patients.xlsx
+++ b/hospital/media/files/patients.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1345,6 +1345,47 @@
         <v>45436</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>26</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vijay</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>33</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>34534563456435</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>vijay@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CHD</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fever </t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="n">
+        <v>45443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
